--- a/aftercovid/data/temperature_2020_france.xlsx
+++ b/aftercovid/data/temperature_2020_france.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xavierdupre\__home_\GitHub\aftercovid\aftercovid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F5F96E-D4D9-4260-96F4-0DA052017B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095DA354-65B8-4C47-8973-D603B57DB9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="-110" windowWidth="18480" windowHeight="11020" activeTab="10" xr2:uid="{DF2D551A-49AD-43C9-9262-0606E89EFFF3}"/>
+    <workbookView xWindow="830" yWindow="-110" windowWidth="18480" windowHeight="11020" activeTab="11" xr2:uid="{DF2D551A-49AD-43C9-9262-0606E89EFFF3}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="480">
   <si>
     <t>Jour</t>
   </si>
@@ -1469,7 +1469,22 @@
     <t>10.4 °C</t>
   </si>
   <si>
-    <t>16.8 °C</t>
+    <t>3.5 °C</t>
+  </si>
+  <si>
+    <t>6.6 °C</t>
+  </si>
+  <si>
+    <t>-0.4 °C</t>
+  </si>
+  <si>
+    <t>0.7 °C</t>
+  </si>
+  <si>
+    <t>2.2 °C</t>
+  </si>
+  <si>
+    <t>0 °C</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1622,21 +1637,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1669,7 +1675,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -9741,6 +9746,5343 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3968750" y="742950"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06B86C0-5B0B-451F-8B3F-A119BD9F280B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="374650"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64598D6B-5FC8-4154-BD77-75DEAA19B43E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="374650"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC7DED6-00A8-4FE1-BDD6-B5ABC1F012C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="558800"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B4411A-82F4-41E5-8870-6C8303D57A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="558800"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 11" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387087A8-FC4F-4646-9405-C01FE14B1368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="742950"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE845E19-D836-439D-BA99-E9AD122580D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="742950"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D442C6E4-D2DD-4DDF-8869-4F5728501CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="927100"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 14" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA628EC-CCD6-440C-9B98-AEA3F0B883DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="927100"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6113881-BC2D-4D54-88C0-B6783AA20041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1111250"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A618620-4475-46D8-B177-926568F85728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="1111250"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 17" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127CE5CB-C071-40F9-83B5-DE8CA96C61F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1295400"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 18" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF2496B-E001-4816-85DF-42C26F3E6260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="1295400"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 19" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97023564-12C3-492E-AAAA-50F0EB1ABDBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1479550"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 20" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28420D1E-6157-40F0-8711-543DBFD6DE94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="1479550"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 21" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB1082E-5510-4BA9-87EB-96E2EEFCBCF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1663700"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 22" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75657B6-AE60-4B6C-B2A6-DD01A68A7E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="1663700"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 23" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0377C9-9BFB-427F-BE5A-B37F18832CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1847850"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 24" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797E5A8B-2863-4258-A066-EF40E98B62C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="1847850"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 25" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2351C027-0B8E-42BD-8EE6-A1E783C5A384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="2032000"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 26" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95450080-7920-4574-ABE1-3E7B579892D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2032000"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 27" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9B85AE-1BF3-4FFF-AF83-7CC095C97590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="2216150"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Image 28" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BA336C-AF39-46E2-AA42-5258AF7FAAEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2216150"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Image 29" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE69D3B9-C7E5-492A-9DAB-1C1EDA762894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="2400300"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 30" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAA45AA-4572-4625-87AE-B1DA868AE81E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2400300"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 31" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD26BD7-06CA-4B4A-A3C8-737A55A41051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="2584450"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 32" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D90C3C-B760-4510-B786-E8C4858E6EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2584450"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 33" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59032C4-B9E9-4A2F-B4EE-797652419DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="2768600"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 34" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65ED7AE-8954-4A91-911E-9E0E3E2E6390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2768600"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 35" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DF0906-8823-4F54-AA12-F372E9EBBFCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="2952750"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 36" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD55E233-6EFE-453B-BCA9-4AACEC367FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2952750"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 37" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D544E0D9-4BA5-4345-A1D3-00D7524C931C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="3136900"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 38" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431F0254-AFDB-465B-8F01-89254BA47C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="3136900"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 39" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F465470-025D-4473-8EFF-611998687129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="3321050"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 40" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F82CD4-3ADC-4BEF-8D0E-DE7F160B94E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="3321050"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 41" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782A6BA4-FA4C-47F7-B6E2-9A74BC8F8C41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="3505200"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Image 42" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93FF0AD-C155-4F83-932C-5D469FCF3B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="3505200"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 43" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA652AE1-A05F-4AA4-8520-51C9D12B634F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="3689350"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Image 44" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69992517-34A1-4C6B-B39A-17A1B31695C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="3689350"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Image 45" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0182245-7F4C-4CD9-B87A-2E772C430198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="3873500"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Image 46" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C311A88-0FEA-47DE-8354-6C67CA48C724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="3873500"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Image 47" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB84AD93-7E5B-4A07-9175-FC240C587340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="4057650"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Image 48" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A289670-D08C-45FC-AFB2-F3D31BAA8569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="4057650"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Image 49" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C853BDA-4A29-4F32-9776-3BF73A512550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="4241800"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Image 50" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8419C9F4-77EB-4F1D-87D3-109E510B3815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="4241800"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Image 51" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8F7E34-0D9E-4BE6-BE5E-7C6F152F3020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="4425950"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Image 52" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28DE3F7-8A93-4F77-AD48-43CE197EFD4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="4425950"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Image 53" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351FE992-8C6E-4C28-8998-3BC413E7DDFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="4610100"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Image 54" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D222202B-6CC1-4267-AF6E-0691F65C62C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="4610100"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Image 55" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABB37EE-E72D-4DFF-8061-E4A415EE247E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="4794250"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Image 56" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD3E176-30F7-4F68-93D9-9D0F12070F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="4794250"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Image 57" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C37462A-8C7E-4688-BCF3-5EB66458A4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="4978400"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Image 58" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E35C14-7EA2-4852-B58E-DAF143EDA1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="4978400"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Image 59" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1BCE2B-BECF-4CC5-8367-9D15BF1B46EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="5162550"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Image 60" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3F4CFE-73DF-422E-AE3C-FC69E9EB10BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="5162550"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Image 61" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7012EBC-B6F6-41EC-855B-DD14F251B997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="5346700"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Image 62" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0C0E1D-A2D1-4DAD-8531-E6E09A83D454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="5346700"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Image 63" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643EEE47-93BA-4E72-BDAD-AD9119F8610B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="5530850"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Image 64" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723E9B01-492B-4821-B45E-E2ABB0A848A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="5530850"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Image 65" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C5600-7D8F-4446-9E2A-CDB5A3B39A70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="5715000"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Image 66" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008FA361-988F-4AC6-853C-A1A668286F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="5715000"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3353CE-ED98-4240-AE71-E09605A77742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="374650"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345DCE40-DFB2-49FB-ADF2-E2381C598A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="374650"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34267C0-F7FD-4BAA-951A-1C9FF45E1ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="558800"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCAD52B-0D31-4830-9312-3EB52B34313C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="558800"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF44D313-6D41-4629-8DB0-866EAA0B710C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="742950"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF219AEF-FDB4-4918-A906-2F5AB2A86BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="742950"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51259000-F0D8-4865-A7A4-B410865321AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="927100"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99EC9C3-7839-4D32-A4E8-E949909B661E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="927100"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039630B9-E339-47AE-8726-665233EE5F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1111250"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CFF8F3-DC38-4874-BAB6-FD8FF37305A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="1111250"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 11" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2144A77-4473-46EE-86F9-367960F82FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1295400"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048CD819-FFF1-4E93-AEE3-92DC4B2C9DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="1295400"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E15D4D-83F2-4134-BFFE-84BB3BA42A15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1479550"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 14" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC23603-71C5-42E1-9D56-FEE1D5D46939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="1479550"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D540BF-A132-4489-8E63-D48467F40FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1663700"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126B3269-DB2D-4909-A2E5-CBA13FF586FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="1663700"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 17" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6115BA-CAD2-47E5-A0D8-57170B783F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1847850"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 18" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3501F7A9-93D3-4577-B139-50E661BFCDA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="1847850"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 19" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786BA472-3B39-4B61-BDD0-915D13081D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="2032000"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 20" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEC0B3C-FCA8-4AC1-9276-6925FA98009A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2032000"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 21" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47EDC68-88F0-4905-BE4F-A164AA290F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="2216150"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 22" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D704EA-1222-43F7-8BE6-B17CB9235898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2216150"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 23" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3168D21C-8301-4F98-8830-FABE1F2221AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="2400300"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 24" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62081030-6EE3-42E4-B44B-C212A73B34FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2400300"/>
+          <a:ext cx="152400" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 25" descr="Voir le tableau en détail de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8112824D-EBDC-4D86-B4F0-0B2C4D4DB50F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="2584450"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 26" descr="Voir les cartes synoptiques des Reanalyses NCEP de ce jour">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D510460-125B-41D5-BE3E-3B54ECC7C65F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2584450"/>
           <a:ext cx="152400" cy="107950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -41402,10 +46744,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943A7DE4-90BA-4467-8839-F6D12CCCD681}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41473,10 +46815,10 @@
         <v>346</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>305</v>
+        <v>69</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -41485,39 +46827,766 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=1&amp;mois2=10&amp;annee2=2020" xr:uid="{80FD672D-0D9B-4C9C-9843-8C2F1DBC99EC}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=2&amp;mois2=10&amp;annee2=2020" xr:uid="{6D0F570B-A11B-46F7-B439-8183B8E4B086}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=3&amp;mois2=10&amp;annee2=2020" xr:uid="{47FEF8A6-DFB9-45AD-B55A-67F0FF97BC77}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=1&amp;mois2=10&amp;annee2=2020" xr:uid="{4289CF17-5ABA-4B91-B260-7FCD5B22AA26}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=2&amp;mois2=10&amp;annee2=2020" xr:uid="{36370B7D-6279-4C4D-9E60-5C6BDAFFE34A}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=3&amp;mois2=10&amp;annee2=2020" xr:uid="{E182BAA2-D517-4262-9D4D-AC4B0476D8B2}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=4&amp;mois2=10&amp;annee2=2020" xr:uid="{DFB427FA-0952-44C2-BCB5-BA8B6A0B01AC}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=5&amp;mois2=10&amp;annee2=2020" xr:uid="{84D56FCA-58C3-4248-B2F6-BE5CB147B0F6}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=6&amp;mois2=10&amp;annee2=2020" xr:uid="{5439114B-0B62-4B0F-A2F1-F611B16AE275}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=7&amp;mois2=10&amp;annee2=2020" xr:uid="{A0482753-53F0-4290-BAD6-240D3E50FB3B}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=8&amp;mois2=10&amp;annee2=2020" xr:uid="{1BF48DB3-7FB6-487B-8693-30146BB6FA0C}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=9&amp;mois2=10&amp;annee2=2020" xr:uid="{F47B00C3-5026-4F6A-B40A-002CD59585FF}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=10&amp;mois2=10&amp;annee2=2020" xr:uid="{01D9FEEA-C548-4A10-840F-54B1558C5FD1}"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=11&amp;mois2=10&amp;annee2=2020" xr:uid="{F28B4177-8B75-477B-9793-A914976A47F8}"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=12&amp;mois2=10&amp;annee2=2020" xr:uid="{7C0DE4E2-4C27-4868-A24E-DD784D0DF1B2}"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=13&amp;mois2=10&amp;annee2=2020" xr:uid="{1FDA3CA8-8362-40D3-8B33-B5323078E15E}"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=14&amp;mois2=10&amp;annee2=2020" xr:uid="{0686593D-8A71-43BE-ADF4-11589FA06872}"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=15&amp;mois2=10&amp;annee2=2020" xr:uid="{0510FD93-F572-4B5E-B1B7-95F337F36651}"/>
+    <hyperlink ref="A18" r:id="rId16" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=16&amp;mois2=10&amp;annee2=2020" xr:uid="{B1C35503-82C8-4653-BC16-16D93A979F25}"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=17&amp;mois2=10&amp;annee2=2020" xr:uid="{DDD6EFC0-2033-4440-9F44-694341130E24}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=18&amp;mois2=10&amp;annee2=2020" xr:uid="{735F18D1-1935-4CD8-8020-0227D52FFDA4}"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=19&amp;mois2=10&amp;annee2=2020" xr:uid="{4039B8B8-5B22-4861-9D31-725B5A2DF196}"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=20&amp;mois2=10&amp;annee2=2020" xr:uid="{D2410979-A633-49DC-B288-9D805DB93D34}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=21&amp;mois2=10&amp;annee2=2020" xr:uid="{E537FACF-A807-49E0-A814-150A4D049F91}"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=22&amp;mois2=10&amp;annee2=2020" xr:uid="{C7F017C6-067B-4CD2-9B82-03512A273FF0}"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=23&amp;mois2=10&amp;annee2=2020" xr:uid="{211476CF-49C9-470A-8F5E-7F9A340D3E00}"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=24&amp;mois2=10&amp;annee2=2020" xr:uid="{5B5A7CA5-7C3D-4CF1-B459-60685324BA62}"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=25&amp;mois2=10&amp;annee2=2020" xr:uid="{A0E2AA5D-F705-4B5E-ADC4-8D6887808641}"/>
+    <hyperlink ref="A28" r:id="rId26" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=26&amp;mois2=10&amp;annee2=2020" xr:uid="{B8F22F3B-4EE3-48A2-9A19-07D85CC51B25}"/>
+    <hyperlink ref="A29" r:id="rId27" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=27&amp;mois2=10&amp;annee2=2020" xr:uid="{D3048B59-DEDA-419D-956B-403D5DB5F971}"/>
+    <hyperlink ref="A30" r:id="rId28" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=28&amp;mois2=10&amp;annee2=2020" xr:uid="{A2AFE821-B36A-4936-B5ED-B9CC609DC229}"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=29&amp;mois2=10&amp;annee2=2020" xr:uid="{E251171E-D880-4FF8-A669-A9687971121C}"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=30&amp;mois2=10&amp;annee2=2020" xr:uid="{224E77E6-A371-44B3-B710-898D3FFA8605}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId31"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEDCF2F-68AA-44B9-ABB1-F206512FC7CC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=1&amp;mois2=11&amp;annee2=2020" xr:uid="{5F42D0CC-D87D-4E34-B8C7-D27BD20481A3}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=2&amp;mois2=11&amp;annee2=2020" xr:uid="{E37B0562-A202-4AB9-99FD-A5402BEB6FFF}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=3&amp;mois2=11&amp;annee2=2020" xr:uid="{0480A4A6-F635-4FAB-B99D-6624977702CD}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=4&amp;mois2=11&amp;annee2=2020" xr:uid="{EF49A880-E880-45FA-BF3A-BFCEDF435F54}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=5&amp;mois2=11&amp;annee2=2020" xr:uid="{13B7EAC2-B699-46B5-968B-7AEE4337171D}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=6&amp;mois2=11&amp;annee2=2020" xr:uid="{241A8C0A-075E-4E9B-9A63-6E1064AE008B}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=7&amp;mois2=11&amp;annee2=2020" xr:uid="{29871967-DBA3-4697-B3F0-E500ED68FF20}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=8&amp;mois2=11&amp;annee2=2020" xr:uid="{4712C7FB-E670-4AE9-89E6-AECDD0A2EFCB}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=9&amp;mois2=11&amp;annee2=2020" xr:uid="{52B3F7C4-9CED-4F11-B96C-46F1E576A808}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=10&amp;mois2=11&amp;annee2=2020" xr:uid="{1D5CF302-D27B-489E-95CC-E84E3E8359E7}"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=11&amp;mois2=11&amp;annee2=2020" xr:uid="{6EB869C9-7C52-4B1A-81DE-64302C66FB03}"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=12&amp;mois2=11&amp;annee2=2020" xr:uid="{7BA227AD-AF9A-4D0F-9335-DFFD3F4DA481}"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://www.meteociel.fr/temps-reel/obs_villes.php?code2=75107005&amp;jour2=13&amp;mois2=11&amp;annee2=2020" xr:uid="{3377728F-E740-435B-9D52-FD8B9BC4AD6D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
